--- a/biology/Histoire de la zoologie et de la botanique/N.H.F.Desp/N.H.F.Desp..xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/N.H.F.Desp/N.H.F.Desp..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Narcisse Henri François Desportes, né à Champrond en 1776 et mort en 1856, est un botaniste et bibliographe français.
 Auditeur de Lamarck au Muséum national d'histoire naturelle de Paris, il devient conservateur du Musée d'histoire naturelle du Mans. Il est l'auteur de plusieurs ouvrages touchant à la bibliographie de sa région d'origine.
@@ -512,7 +524,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Roses cultivées en France, au nombre de 2562 espèces ou variétés, avec la synonymie française et latine. Paris : Mme Huzard ; Le Mans : Pesche, 1829, XVII-124 p. Le faux-titre porte : Rosetum gallicum, ou Énumération méthodique des espèces et variétés du genre rosier, indigènes en France ou cultivées dans les jardins... ;
 Biographie et bibliographie du Maine et du département de la Sarthe, faisant suite au Dictionnaire statistique du même département. Le Mans : Monnoyer, 1828, 2 parties en 1 vol. in-8 ̊ ;
